--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
@@ -523,13 +523,67 @@
   </si>
   <si>
     <t>203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>203.162.69.18,16880</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.181101</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp, foutl gps.gsm</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>203.162.69.18,16884</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Thiết bị không thuộc diện bảo hành</t>
+  </si>
+  <si>
+    <t>TB bán cho đại lý Ngọc Kim Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180115 </t>
+  </si>
+  <si>
+    <t>203.162.69.75,20275</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.150917</t>
+  </si>
+  <si>
+    <t>Thiết bỊ lỗi module GSM</t>
+  </si>
+  <si>
+    <t>203.162.69.18,16885</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,14 +659,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -765,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -944,16 +1003,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,15 +1096,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,6 +1126,69 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,43 +1210,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1481,43 +1555,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1562,58 +1636,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="121" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="114" t="s">
+      <c r="S4" s="129" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="119" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1638,33 +1712,33 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="130"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -1673,12 +1747,12 @@
       <c r="E6" s="52">
         <v>863586034525430</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="62" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="60" t="s">
         <v>97</v>
       </c>
       <c r="J6" s="53"/>
@@ -1706,8 +1780,8 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="106" t="s">
+      <c r="U6" s="68"/>
+      <c r="V6" s="122" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1718,10 +1792,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -1734,8 +1808,8 @@
       <c r="G7" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="62" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="60" t="s">
         <v>100</v>
       </c>
       <c r="J7" s="53"/>
@@ -1763,8 +1837,8 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="107"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="123"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1773,25 +1847,33 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="52">
         <v>862631034714401</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
+      <c r="I8" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="M8" s="53"/>
       <c r="N8" s="55"/>
       <c r="O8" s="53"/>
@@ -1800,8 +1882,8 @@
       <c r="R8" s="51"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="107"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="123"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1810,25 +1892,31 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="52">
         <v>868345035591205</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
+      <c r="I9" s="60" t="s">
+        <v>179</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
@@ -1836,9 +1924,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="107"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1847,21 +1935,21 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="52">
         <v>862631034747989</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="53" t="s">
         <v>101</v>
       </c>
@@ -1891,9 +1979,9 @@
         <v>92</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="107"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1902,17 +1990,17 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="52">
         <v>863586032793162</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="51" t="s">
         <v>67</v>
       </c>
@@ -1934,9 +2022,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="107"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1945,17 +2033,17 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="52">
         <v>862631039252878</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="51" t="s">
         <v>67</v>
       </c>
@@ -1979,9 +2067,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="51"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="106" t="s">
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="122" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -2010,9 +2098,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="107"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2039,9 +2127,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="107"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2068,9 +2156,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2097,9 +2185,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="70"/>
+      <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2126,9 +2214,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="70"/>
+      <c r="T17" s="68"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="70"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,7 +2241,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="68"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -2180,7 +2268,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="68"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -2211,7 +2299,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="68"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -2243,7 +2331,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="70"/>
+      <c r="T21" s="68"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -2275,7 +2363,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="68"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -2307,7 +2395,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="68"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -2334,7 +2422,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="68"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2361,7 +2449,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="70"/>
+      <c r="T25" s="68"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -2392,7 +2480,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="70"/>
+      <c r="T26" s="68"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2424,7 +2512,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="70"/>
+      <c r="T27" s="68"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -2456,7 +2544,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="70"/>
+      <c r="T28" s="68"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2488,7 +2576,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="70"/>
+      <c r="T29" s="68"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2520,7 +2608,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="70"/>
+      <c r="T30" s="68"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2552,7 +2640,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="70"/>
+      <c r="T31" s="68"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -2584,7 +2672,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="70"/>
+      <c r="T32" s="68"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2616,7 +2704,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="68"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2648,7 +2736,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="68"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -2680,7 +2768,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="70"/>
+      <c r="T35" s="68"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -2712,7 +2800,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="70"/>
+      <c r="T36" s="68"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2744,7 +2832,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="70"/>
+      <c r="T37" s="68"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -2776,7 +2864,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="68"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2803,7 +2891,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="70"/>
+      <c r="T39" s="68"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2830,7 +2918,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="70"/>
+      <c r="T40" s="68"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2862,7 +2950,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="70"/>
+      <c r="T41" s="68"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2894,7 +2982,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="70"/>
+      <c r="T42" s="68"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -2921,7 +3009,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="70"/>
+      <c r="T43" s="68"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -3123,10 +3211,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="69"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -3137,7 +3225,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="69"/>
+      <c r="R50" s="67"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -3333,10 +3421,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="125">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3365,8 +3453,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3392,8 +3480,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4680,6 +4768,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4690,16 +4788,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4711,7 +4799,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4814,7 @@
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="104" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="99" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
@@ -4742,48 +4830,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="99"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="24"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -4808,7 +4896,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="100"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4823,58 +4911,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="121" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="114" t="s">
+      <c r="S4" s="129" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="119" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4899,33 +4987,33 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="130"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -4934,12 +5022,12 @@
       <c r="E6" s="52">
         <v>868183038483611</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="76" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="74" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -4969,8 +5057,8 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="106" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="122" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4981,10 +5069,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -4998,7 +5086,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="74" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="53" t="s">
@@ -5028,8 +5116,8 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="107"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="123"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5038,10 +5126,10 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="51" t="s">
@@ -5050,12 +5138,12 @@
       <c r="E8" s="52">
         <v>868183035851356</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="74" t="s">
         <v>82</v>
       </c>
       <c r="J8" s="53" t="s">
@@ -5085,8 +5173,8 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="107"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="123"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5095,10 +5183,10 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="51" t="s">
@@ -5107,12 +5195,12 @@
       <c r="E9" s="52">
         <v>868183037827610</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="60" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="53" t="s">
@@ -5142,8 +5230,8 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="107"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5152,10 +5240,10 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="51" t="s">
@@ -5164,7 +5252,7 @@
       <c r="E10" s="52">
         <v>868183037877235</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="51" t="s">
         <v>88</v>
       </c>
@@ -5175,7 +5263,7 @@
       <c r="J10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="88" t="s">
         <v>91</v>
       </c>
       <c r="L10" s="56" t="s">
@@ -5199,8 +5287,8 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="107"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5209,10 +5297,10 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="51" t="s">
@@ -5221,18 +5309,18 @@
       <c r="E11" s="52">
         <v>868183037851016</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="74" t="s">
         <v>125</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="88" t="s">
         <v>91</v>
       </c>
       <c r="L11" s="56" t="s">
@@ -5256,8 +5344,8 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="107"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5266,10 +5354,10 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="51" t="s">
@@ -5278,18 +5366,18 @@
       <c r="E12" s="52">
         <v>868183037850083</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="74" t="s">
         <v>121</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="88" t="s">
         <v>91</v>
       </c>
       <c r="L12" s="56" t="s">
@@ -5313,8 +5401,8 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="106" t="s">
+      <c r="U12" s="65"/>
+      <c r="V12" s="122" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5325,10 +5413,10 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="51" t="s">
@@ -5337,25 +5425,25 @@
       <c r="E13" s="52">
         <v>868183033813762</v>
       </c>
-      <c r="F13" s="71"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="87" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="90"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="56" t="s">
         <v>84</v>
       </c>
       <c r="M13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="91"/>
+      <c r="N13" s="89"/>
       <c r="O13" s="53" t="s">
         <v>73</v>
       </c>
@@ -5368,10 +5456,10 @@
       <c r="R13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="92"/>
+      <c r="S13" s="90"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="107"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5380,10 +5468,10 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -5401,20 +5489,20 @@
       <c r="H14" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="92" t="s">
+      <c r="J14" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="56" t="s">
         <v>84</v>
       </c>
       <c r="M14" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="92"/>
+      <c r="N14" s="90"/>
       <c r="O14" s="53" t="s">
         <v>73</v>
       </c>
@@ -5427,10 +5515,10 @@
       <c r="R14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="92"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="107"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5439,10 +5527,10 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="51" t="s">
@@ -5456,7 +5544,7 @@
         <v>67</v>
       </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="75" t="s">
         <v>126</v>
       </c>
       <c r="J15" s="53" t="s">
@@ -5489,7 +5577,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="11"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5498,10 +5586,10 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="51" t="s">
@@ -5515,7 +5603,7 @@
         <v>67</v>
       </c>
       <c r="H16" s="51"/>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="76" t="s">
         <v>133</v>
       </c>
       <c r="J16" s="1"/>
@@ -5544,7 +5632,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="11"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5553,10 +5641,10 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="51" t="s">
@@ -5565,12 +5653,12 @@
       <c r="E17" s="52">
         <v>868183034643192</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="77" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="15"/>
@@ -5599,17 +5687,17 @@
       <c r="S17" s="4"/>
       <c r="T17" s="11"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="67"/>
+      <c r="V17" s="65"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="51" t="s">
@@ -5622,8 +5710,8 @@
       <c r="G18" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="78" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="76" t="s">
         <v>135</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -5661,24 +5749,24 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="92">
         <v>868183033857728</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="78" t="s">
+      <c r="H19" s="69"/>
+      <c r="I19" s="76" t="s">
         <v>138</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -5720,17 +5808,17 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="66">
         <v>868183037850844</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="51"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -5757,24 +5845,24 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="66">
         <v>868183033869764</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="51" t="s">
         <v>67</v>
       </c>
@@ -5822,17 +5910,17 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="66">
         <v>868183034563259</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="51" t="s">
         <v>88</v>
       </c>
@@ -5880,17 +5968,17 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="66">
         <v>867857039930164</v>
       </c>
-      <c r="F23" s="71"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="51" t="s">
         <v>67</v>
       </c>
@@ -5923,17 +6011,17 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="66">
         <v>868183034807326</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="51" t="s">
         <v>67</v>
       </c>
@@ -5976,17 +6064,17 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="66">
         <v>868183034794904</v>
       </c>
-      <c r="F25" s="71"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="51" t="s">
         <v>88</v>
       </c>
@@ -6033,17 +6121,17 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="66">
         <v>868183035906499</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="51" t="s">
         <v>67</v>
       </c>
@@ -6081,17 +6169,17 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="66">
         <v>868183034523840</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="51" t="s">
         <v>88</v>
       </c>
@@ -6127,22 +6215,24 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="66">
         <v>868183038533779</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="105">
+      <c r="H28" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="100">
         <v>125212203114.157</v>
       </c>
       <c r="J28" s="1"/>
@@ -6152,12 +6242,22 @@
       <c r="L28" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
+      <c r="O28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="11"/>
       <c r="U28" s="16"/>
@@ -6173,17 +6273,17 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="66">
         <v>868183033808093</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="51" t="s">
         <v>67</v>
       </c>
@@ -6194,7 +6294,7 @@
       <c r="J29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="101" t="s">
+      <c r="K29" s="96" t="s">
         <v>151</v>
       </c>
       <c r="L29" s="56" t="s">
@@ -6221,17 +6321,17 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="51" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="52">
         <v>868183034520077</v>
       </c>
-      <c r="F30" s="71"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="51" t="s">
         <v>88</v>
       </c>
@@ -6240,7 +6340,7 @@
         <v>155</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>83</v>
@@ -6297,7 +6397,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="67"/>
+      <c r="T31" s="65"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -6329,7 +6429,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="67"/>
+      <c r="T32" s="65"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -6361,7 +6461,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="67"/>
+      <c r="T33" s="65"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -6393,7 +6493,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="67"/>
+      <c r="T34" s="65"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -6425,7 +6525,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="67"/>
+      <c r="T35" s="65"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -6457,14 +6557,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="67"/>
+      <c r="T36" s="65"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,14 +6589,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="67"/>
+      <c r="T37" s="65"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6521,7 +6621,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="67"/>
+      <c r="T38" s="65"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -6548,7 +6648,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="65"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -6575,7 +6675,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="67"/>
+      <c r="T40" s="65"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -6607,14 +6707,14 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="67"/>
+      <c r="T41" s="65"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6639,7 +6739,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="67"/>
+      <c r="T42" s="65"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -6666,7 +6766,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="67"/>
+      <c r="T43" s="65"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -6868,10 +6968,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="66"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -6882,7 +6982,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="66"/>
+      <c r="R50" s="64"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -6939,7 +7039,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="102"/>
+      <c r="K52" s="97"/>
       <c r="L52" s="37"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
@@ -6971,7 +7071,7 @@
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="102"/>
+      <c r="K53" s="97"/>
       <c r="L53" s="37"/>
       <c r="M53" s="36"/>
       <c r="N53" s="21"/>
@@ -7003,7 +7103,7 @@
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
-      <c r="K54" s="103"/>
+      <c r="K54" s="98"/>
       <c r="L54" s="43"/>
       <c r="M54" s="42"/>
       <c r="N54" s="44"/>
@@ -7035,7 +7135,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
-      <c r="K55" s="102"/>
+      <c r="K55" s="97"/>
       <c r="L55" s="37"/>
       <c r="M55" s="36"/>
       <c r="N55" s="21"/>
@@ -7067,7 +7167,7 @@
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
-      <c r="K56" s="102"/>
+      <c r="K56" s="97"/>
       <c r="L56" s="37"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
@@ -7078,10 +7178,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="125">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7099,7 +7199,7 @@
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="K57" s="102"/>
+      <c r="K57" s="97"/>
       <c r="L57" s="37"/>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
@@ -7110,8 +7210,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7126,7 +7226,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="102"/>
+      <c r="K58" s="97"/>
       <c r="L58" s="37"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -7137,8 +7237,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7153,7 +7253,7 @@
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="K59" s="102"/>
+      <c r="K59" s="97"/>
       <c r="L59" s="37"/>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
@@ -7180,7 +7280,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
-      <c r="K60" s="102"/>
+      <c r="K60" s="97"/>
       <c r="L60" s="37"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
@@ -7207,7 +7307,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="102"/>
+      <c r="K61" s="97"/>
       <c r="L61" s="37"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -7239,7 +7339,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
-      <c r="K62" s="102"/>
+      <c r="K62" s="97"/>
       <c r="L62" s="37"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
@@ -7255,7 +7355,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7271,7 +7371,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="K63" s="102"/>
+      <c r="K63" s="97"/>
       <c r="L63" s="37"/>
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
@@ -7298,7 +7398,7 @@
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
-      <c r="K64" s="102"/>
+      <c r="K64" s="97"/>
       <c r="L64" s="37"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
@@ -7325,7 +7425,7 @@
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="K65" s="102"/>
+      <c r="K65" s="97"/>
       <c r="L65" s="37"/>
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
@@ -7352,7 +7452,7 @@
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-      <c r="K66" s="102"/>
+      <c r="K66" s="97"/>
       <c r="L66" s="37"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
@@ -7379,7 +7479,7 @@
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="K67" s="102"/>
+      <c r="K67" s="97"/>
       <c r="L67" s="37"/>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
@@ -7409,7 +7509,7 @@
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="K68" s="102"/>
+      <c r="K68" s="97"/>
       <c r="L68" s="37"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
@@ -7436,7 +7536,7 @@
       <c r="H69" s="36"/>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-      <c r="K69" s="102"/>
+      <c r="K69" s="97"/>
       <c r="L69" s="37"/>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
@@ -7463,7 +7563,7 @@
       <c r="H70" s="36"/>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
-      <c r="K70" s="102"/>
+      <c r="K70" s="97"/>
       <c r="L70" s="37"/>
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
@@ -7490,7 +7590,7 @@
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
-      <c r="K71" s="102"/>
+      <c r="K71" s="97"/>
       <c r="L71" s="37"/>
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
@@ -7517,7 +7617,7 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="K72" s="102"/>
+      <c r="K72" s="97"/>
       <c r="L72" s="37"/>
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
@@ -7544,7 +7644,7 @@
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
-      <c r="K73" s="102"/>
+      <c r="K73" s="97"/>
       <c r="L73" s="37"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -7571,7 +7671,7 @@
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="K74" s="102"/>
+      <c r="K74" s="97"/>
       <c r="L74" s="37"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
@@ -7598,7 +7698,7 @@
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="K75" s="102"/>
+      <c r="K75" s="97"/>
       <c r="L75" s="37"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -7625,7 +7725,7 @@
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
-      <c r="K76" s="102"/>
+      <c r="K76" s="97"/>
       <c r="L76" s="37"/>
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
@@ -7652,7 +7752,7 @@
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
-      <c r="K77" s="102"/>
+      <c r="K77" s="97"/>
       <c r="L77" s="37"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
@@ -7679,7 +7779,7 @@
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
-      <c r="K78" s="102"/>
+      <c r="K78" s="97"/>
       <c r="L78" s="37"/>
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
@@ -7706,7 +7806,7 @@
       <c r="H79" s="36"/>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
-      <c r="K79" s="102"/>
+      <c r="K79" s="97"/>
       <c r="L79" s="37"/>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
@@ -7733,7 +7833,7 @@
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
-      <c r="K80" s="102"/>
+      <c r="K80" s="97"/>
       <c r="L80" s="37"/>
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
@@ -7760,7 +7860,7 @@
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="K81" s="102"/>
+      <c r="K81" s="97"/>
       <c r="L81" s="37"/>
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
@@ -7787,7 +7887,7 @@
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="K82" s="102"/>
+      <c r="K82" s="97"/>
       <c r="L82" s="37"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -7814,7 +7914,7 @@
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="K83" s="102"/>
+      <c r="K83" s="97"/>
       <c r="L83" s="37"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -7841,7 +7941,7 @@
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
-      <c r="K84" s="102"/>
+      <c r="K84" s="97"/>
       <c r="L84" s="37"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -7868,7 +7968,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-      <c r="K85" s="102"/>
+      <c r="K85" s="97"/>
       <c r="L85" s="37"/>
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
@@ -7895,7 +7995,7 @@
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="K86" s="102"/>
+      <c r="K86" s="97"/>
       <c r="L86" s="37"/>
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
@@ -7922,7 +8022,7 @@
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="K87" s="102"/>
+      <c r="K87" s="97"/>
       <c r="L87" s="37"/>
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
@@ -7949,7 +8049,7 @@
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="K88" s="102"/>
+      <c r="K88" s="97"/>
       <c r="L88" s="37"/>
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
@@ -7976,7 +8076,7 @@
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="K89" s="102"/>
+      <c r="K89" s="97"/>
       <c r="L89" s="37"/>
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
@@ -8003,7 +8103,7 @@
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="K90" s="102"/>
+      <c r="K90" s="97"/>
       <c r="L90" s="37"/>
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
@@ -8030,7 +8130,7 @@
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="K91" s="102"/>
+      <c r="K91" s="97"/>
       <c r="L91" s="37"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -8057,7 +8157,7 @@
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="K92" s="102"/>
+      <c r="K92" s="97"/>
       <c r="L92" s="37"/>
       <c r="M92" s="36"/>
       <c r="N92" s="36"/>
@@ -8084,7 +8184,7 @@
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="102"/>
+      <c r="K93" s="97"/>
       <c r="L93" s="37"/>
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
@@ -8111,7 +8211,7 @@
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="K94" s="102"/>
+      <c r="K94" s="97"/>
       <c r="L94" s="37"/>
       <c r="M94" s="36"/>
       <c r="N94" s="36"/>
@@ -8138,7 +8238,7 @@
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-      <c r="K95" s="102"/>
+      <c r="K95" s="97"/>
       <c r="L95" s="37"/>
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
@@ -8165,7 +8265,7 @@
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-      <c r="K96" s="102"/>
+      <c r="K96" s="97"/>
       <c r="L96" s="37"/>
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
@@ -8192,7 +8292,7 @@
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-      <c r="K97" s="102"/>
+      <c r="K97" s="97"/>
       <c r="L97" s="37"/>
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
@@ -8219,7 +8319,7 @@
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="K98" s="102"/>
+      <c r="K98" s="97"/>
       <c r="L98" s="37"/>
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
@@ -8246,7 +8346,7 @@
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="K99" s="102"/>
+      <c r="K99" s="97"/>
       <c r="L99" s="37"/>
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
@@ -8273,7 +8373,7 @@
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
-      <c r="K100" s="102"/>
+      <c r="K100" s="97"/>
       <c r="L100" s="37"/>
       <c r="M100" s="36"/>
       <c r="N100" s="36"/>
@@ -8300,7 +8400,7 @@
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
-      <c r="K101" s="102"/>
+      <c r="K101" s="97"/>
       <c r="L101" s="37"/>
       <c r="M101" s="36"/>
       <c r="N101" s="36"/>
@@ -8327,7 +8427,7 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
-      <c r="K102" s="102"/>
+      <c r="K102" s="97"/>
       <c r="L102" s="37"/>
       <c r="M102" s="36"/>
       <c r="N102" s="36"/>
@@ -8354,7 +8454,7 @@
       <c r="H103" s="36"/>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
-      <c r="K103" s="102"/>
+      <c r="K103" s="97"/>
       <c r="L103" s="37"/>
       <c r="M103" s="36"/>
       <c r="N103" s="36"/>
@@ -8381,7 +8481,7 @@
       <c r="H104" s="36"/>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
-      <c r="K104" s="102"/>
+      <c r="K104" s="97"/>
       <c r="L104" s="37"/>
       <c r="M104" s="36"/>
       <c r="N104" s="36"/>
@@ -8408,7 +8508,7 @@
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="102"/>
+      <c r="K105" s="97"/>
       <c r="L105" s="37"/>
       <c r="M105" s="36"/>
       <c r="N105" s="36"/>
@@ -8425,6 +8525,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8435,16 +8545,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8455,8 +8555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8469,7 +8569,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="82" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -8487,46 +8587,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -8551,7 +8651,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -8568,58 +8668,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="121" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="114" t="s">
+      <c r="S4" s="129" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="119" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8641,36 +8741,36 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="130"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -8679,14 +8779,14 @@
       <c r="E6" s="52">
         <v>864811037290769</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="60" t="s">
         <v>107</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -8718,8 +8818,8 @@
         <v>75</v>
       </c>
       <c r="T6" s="11"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="106" t="s">
+      <c r="U6" s="62"/>
+      <c r="V6" s="122" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8730,10 +8830,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="83" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -8747,7 +8847,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>110</v>
       </c>
       <c r="J7" s="53"/>
@@ -8777,8 +8877,8 @@
         <v>75</v>
       </c>
       <c r="T7" s="11"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="107"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="123"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8787,24 +8887,24 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="52">
         <v>868345035586726</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="60" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="53" t="s">
@@ -8816,16 +8916,26 @@
       <c r="L8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>168</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="107"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="123"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8834,35 +8944,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="52">
         <v>868345031033004</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>162</v>
+      </c>
       <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T9" s="11"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="107"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8871,35 +8999,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="52">
         <v>864811036982424</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T10" s="11"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="107"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8908,35 +9056,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="52">
         <v>864811036922362</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="I11" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
+      <c r="O11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T11" s="11"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="107"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8945,75 +9113,115 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="52">
         <v>864811037229650</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="51" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T12" s="11"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="106" t="s">
+      <c r="U12" s="62"/>
+      <c r="V12" s="122" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:23" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103">
         <v>8</v>
       </c>
       <c r="B13" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="105">
         <v>864811036970767</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="106"/>
+      <c r="G13" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="4" t="s">
+      <c r="H13" s="104"/>
+      <c r="I13" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="110"/>
+      <c r="O13" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="111"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="103" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9021,41 +9229,55 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="123"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="52">
         <v>866192037779442</v>
       </c>
-      <c r="F14" s="71"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="124" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="90" t="s">
+      <c r="J14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="88" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="92"/>
+      <c r="M14" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" s="90"/>
+      <c r="O14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T14" s="11"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="107"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9064,35 +9286,53 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="87"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="52">
         <v>864811036988629</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9101,35 +9341,55 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="52">
         <v>866192037770821</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="4"/>
+      <c r="O16" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T16" s="11"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9145,7 +9405,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -9156,9 +9416,9 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="62"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="62"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9172,9 +9432,9 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="79"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="15"/>
@@ -9183,7 +9443,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -9199,7 +9459,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9210,7 +9470,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="62"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -9230,7 +9490,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="78"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9241,7 +9501,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="62"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -9262,7 +9522,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -9273,14 +9533,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="62"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9294,7 +9554,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="80"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -9305,14 +9565,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="62"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9326,7 +9586,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="80"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -9337,7 +9597,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -9353,7 +9613,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="80"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -9364,7 +9624,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -9380,7 +9640,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="80"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -9391,7 +9651,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="62"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -9411,7 +9671,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="80"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -9422,7 +9682,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="62"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -9443,7 +9703,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="80"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -9454,7 +9714,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="62"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -9475,7 +9735,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9486,7 +9746,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="62"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -9507,7 +9767,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="78"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -9518,7 +9778,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="62"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -9539,7 +9799,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9550,7 +9810,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="62"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -9571,7 +9831,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -9582,14 +9842,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="62"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9603,7 +9863,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="78"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9614,7 +9874,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="62"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -9635,7 +9895,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="78"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9646,7 +9906,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -9667,7 +9927,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="78"/>
+      <c r="I34" s="76"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -9678,7 +9938,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -9699,7 +9959,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="78"/>
+      <c r="I35" s="76"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -9710,14 +9970,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="62"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,7 +9991,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="78"/>
+      <c r="I36" s="76"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -9742,7 +10002,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="62"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -9763,7 +10023,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="78"/>
+      <c r="I37" s="76"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -9774,14 +10034,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="62"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9795,7 +10055,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="78"/>
+      <c r="I38" s="76"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9806,7 +10066,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -9822,7 +10082,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="78"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -9833,7 +10093,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="62"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -9849,7 +10109,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="78"/>
+      <c r="I40" s="76"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -9860,7 +10120,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="62"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -9881,7 +10141,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="78"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -9892,14 +10152,14 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="62"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9913,7 +10173,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="78"/>
+      <c r="I42" s="76"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -9924,7 +10184,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="62"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -9940,7 +10200,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="78"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9951,7 +10211,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="62"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -9967,7 +10227,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="78"/>
+      <c r="I44" s="76"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -9998,7 +10258,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="78"/>
+      <c r="I45" s="76"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -10030,7 +10290,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="78"/>
+      <c r="I46" s="76"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -10062,7 +10322,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="78"/>
+      <c r="I47" s="76"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -10094,7 +10354,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="78"/>
+      <c r="I48" s="76"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -10126,7 +10386,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="78"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -10153,12 +10413,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="81"/>
+      <c r="I50" s="79"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -10167,7 +10427,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="65"/>
+      <c r="R50" s="63"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -10190,7 +10450,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="78"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -10222,7 +10482,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="82"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -10254,7 +10514,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="82"/>
+      <c r="I53" s="80"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -10286,7 +10546,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="83"/>
+      <c r="I54" s="81"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -10318,7 +10578,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="82"/>
+      <c r="I55" s="80"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -10350,7 +10610,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="82"/>
+      <c r="I56" s="80"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -10363,10 +10623,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="125">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10382,7 +10642,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="82"/>
+      <c r="I57" s="80"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -10395,8 +10655,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10409,7 +10669,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="82"/>
+      <c r="I58" s="80"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -10422,8 +10682,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10436,7 +10696,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="82"/>
+      <c r="I59" s="80"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -10463,7 +10723,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="82"/>
+      <c r="I60" s="80"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -10490,7 +10750,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="82"/>
+      <c r="I61" s="80"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -10522,7 +10782,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="82"/>
+      <c r="I62" s="80"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -10540,7 +10800,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10554,7 +10814,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="82"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -10581,7 +10841,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="82"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -10608,7 +10868,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="82"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -10635,7 +10895,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="82"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -10662,7 +10922,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="82"/>
+      <c r="I67" s="80"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -10692,7 +10952,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="82"/>
+      <c r="I68" s="80"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -10719,7 +10979,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="82"/>
+      <c r="I69" s="80"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -10746,7 +11006,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="82"/>
+      <c r="I70" s="80"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -10773,7 +11033,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="82"/>
+      <c r="I71" s="80"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -10800,7 +11060,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="82"/>
+      <c r="I72" s="80"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -10827,7 +11087,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="82"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -10854,7 +11114,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="82"/>
+      <c r="I74" s="80"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -10881,7 +11141,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="82"/>
+      <c r="I75" s="80"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -10908,7 +11168,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="82"/>
+      <c r="I76" s="80"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -10935,7 +11195,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="82"/>
+      <c r="I77" s="80"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -10962,7 +11222,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="82"/>
+      <c r="I78" s="80"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -10989,7 +11249,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="82"/>
+      <c r="I79" s="80"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -11016,7 +11276,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="82"/>
+      <c r="I80" s="80"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -11043,7 +11303,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="82"/>
+      <c r="I81" s="80"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -11070,7 +11330,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="82"/>
+      <c r="I82" s="80"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -11097,7 +11357,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="82"/>
+      <c r="I83" s="80"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -11124,7 +11384,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="82"/>
+      <c r="I84" s="80"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -11151,7 +11411,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="82"/>
+      <c r="I85" s="80"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -11178,7 +11438,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="82"/>
+      <c r="I86" s="80"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -11205,7 +11465,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="82"/>
+      <c r="I87" s="80"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -11232,7 +11492,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="82"/>
+      <c r="I88" s="80"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -11259,7 +11519,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="82"/>
+      <c r="I89" s="80"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -11286,7 +11546,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="82"/>
+      <c r="I90" s="80"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -11313,7 +11573,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="82"/>
+      <c r="I91" s="80"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -11340,7 +11600,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="82"/>
+      <c r="I92" s="80"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -11367,7 +11627,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="82"/>
+      <c r="I93" s="80"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -11394,7 +11654,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="82"/>
+      <c r="I94" s="80"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -11421,7 +11681,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="82"/>
+      <c r="I95" s="80"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -11448,7 +11708,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="82"/>
+      <c r="I96" s="80"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -11475,7 +11735,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="82"/>
+      <c r="I97" s="80"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -11502,7 +11762,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="82"/>
+      <c r="I98" s="80"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -11529,7 +11789,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="82"/>
+      <c r="I99" s="80"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -11556,7 +11816,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="82"/>
+      <c r="I100" s="80"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -11583,7 +11843,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="82"/>
+      <c r="I101" s="80"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -11610,7 +11870,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="82"/>
+      <c r="I102" s="80"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -11637,7 +11897,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="82"/>
+      <c r="I103" s="80"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -11664,7 +11924,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="82"/>
+      <c r="I104" s="80"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -11691,7 +11951,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="82"/>
+      <c r="I105" s="80"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -11710,6 +11970,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11720,16 +11990,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11772,43 +12032,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11853,58 +12113,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="121" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="114" t="s">
+      <c r="S4" s="129" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="119" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11929,24 +12189,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="130"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11972,7 +12232,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="122" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -12003,7 +12263,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="123"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12032,7 +12292,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="123"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12061,7 +12321,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -12090,7 +12350,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12119,7 +12379,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12148,7 +12408,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="106" t="s">
+      <c r="V12" s="122" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12166,7 +12426,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="76"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="53"/>
       <c r="K13" s="56"/>
       <c r="L13" s="53"/>
@@ -12179,7 +12439,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12195,7 +12455,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="76"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="53"/>
       <c r="K14" s="1"/>
       <c r="L14" s="53"/>
@@ -12208,7 +12468,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12224,7 +12484,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="76"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="53"/>
       <c r="K15" s="56"/>
       <c r="L15" s="53"/>
@@ -12237,7 +12497,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12253,7 +12513,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="53"/>
       <c r="K16" s="1"/>
       <c r="L16" s="53"/>
@@ -12266,7 +12526,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12282,7 +12542,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="53"/>
       <c r="K17" s="56"/>
       <c r="L17" s="53"/>
@@ -12309,7 +12569,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="53"/>
       <c r="K18" s="56"/>
       <c r="L18" s="53"/>
@@ -12332,11 +12592,11 @@
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="68"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="53"/>
       <c r="K19" s="1"/>
       <c r="L19" s="53"/>
@@ -12367,7 +12627,7 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="53"/>
       <c r="K20" s="54"/>
       <c r="L20" s="1"/>
@@ -12399,7 +12659,7 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="1"/>
       <c r="K21" s="53"/>
       <c r="L21" s="1"/>
@@ -12431,7 +12691,7 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -12463,7 +12723,7 @@
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="76"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -12490,7 +12750,7 @@
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -12510,7 +12770,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
@@ -12541,14 +12801,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="62"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="53"/>
       <c r="K26" s="1"/>
       <c r="L26" s="53"/>
@@ -12577,7 +12837,7 @@
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="71"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
       <c r="I27" s="53"/>
@@ -12612,7 +12872,7 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -13500,10 +13760,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="125">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13532,8 +13792,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -13559,8 +13819,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14847,6 +15107,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14857,16 +15127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="184">
   <si>
     <t>STT</t>
   </si>
@@ -577,6 +577,18 @@
   </si>
   <si>
     <t>203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>Thay led gps, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay flash, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,9 +1093,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,9 +1134,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1523,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N21:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1555,43 +1561,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1636,58 +1642,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="P4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="119" t="s">
+      <c r="Q4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="119" t="s">
+      <c r="R4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="127" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="119" t="s">
+      <c r="V4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="117" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1712,24 +1718,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="119"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="130"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1781,7 +1787,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="120" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1838,7 +1844,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="123"/>
+      <c r="V7" s="121"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1850,7 +1856,9 @@
       <c r="B8" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>47</v>
       </c>
@@ -1874,16 +1882,26 @@
       <c r="L8" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>180</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="123"/>
+      <c r="V8" s="121"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1895,7 +1913,9 @@
       <c r="B9" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>47</v>
       </c>
@@ -1917,16 +1937,26 @@
       <c r="L9" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="123"/>
+      <c r="V9" s="121"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1938,7 +1968,9 @@
       <c r="B10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>47</v>
       </c>
@@ -1981,7 +2013,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="123"/>
+      <c r="V10" s="121"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2025,9 @@
       <c r="B11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>47</v>
       </c>
@@ -2015,16 +2049,26 @@
       <c r="L11" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="123"/>
+      <c r="V11" s="121"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2080,9 @@
       <c r="B12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>47</v>
       </c>
@@ -2060,16 +2106,26 @@
       <c r="L12" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>181</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="120" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -2100,7 +2156,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="123"/>
+      <c r="V13" s="121"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2185,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="123"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2158,7 +2214,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="123"/>
+      <c r="V15" s="121"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2187,7 +2243,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="124"/>
+      <c r="V16" s="122"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2306,7 +2362,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,7 +2394,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2370,7 +2426,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2575,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,7 +2703,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,7 +2831,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,7 +2895,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,7 +3013,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,10 +3477,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="125" t="s">
+      <c r="V56" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="125">
+      <c r="W56" s="123">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3453,8 +3509,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3480,8 +3536,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3598,7 +3654,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4798,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4814,7 +4870,7 @@
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="99" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="98" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
@@ -4830,48 +4886,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="94"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="24"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -4896,7 +4952,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="95"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4911,58 +4967,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="P4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="119" t="s">
+      <c r="Q4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="119" t="s">
+      <c r="R4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="127" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="119" t="s">
+      <c r="V4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="117" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4987,24 +5043,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="119"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="130"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5058,7 +5114,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="11"/>
       <c r="U6" s="65"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="120" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -5117,7 +5173,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="11"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="123"/>
+      <c r="V7" s="121"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5174,7 +5230,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="11"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="123"/>
+      <c r="V8" s="121"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5287,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="11"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="123"/>
+      <c r="V9" s="121"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5263,7 +5319,7 @@
       <c r="J10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="87" t="s">
         <v>91</v>
       </c>
       <c r="L10" s="56" t="s">
@@ -5288,7 +5344,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
       <c r="U10" s="65"/>
-      <c r="V10" s="123"/>
+      <c r="V10" s="121"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5320,7 +5376,7 @@
       <c r="J11" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="87" t="s">
         <v>91</v>
       </c>
       <c r="L11" s="56" t="s">
@@ -5345,7 +5401,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="11"/>
       <c r="U11" s="65"/>
-      <c r="V11" s="123"/>
+      <c r="V11" s="121"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5377,7 +5433,7 @@
       <c r="J12" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="87" t="s">
         <v>91</v>
       </c>
       <c r="L12" s="56" t="s">
@@ -5402,7 +5458,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="11"/>
       <c r="U12" s="65"/>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="120" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5430,20 +5486,20 @@
         <v>67</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="86" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="88"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="56" t="s">
         <v>84</v>
       </c>
       <c r="M13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="89"/>
+      <c r="N13" s="88"/>
       <c r="O13" s="53" t="s">
         <v>73</v>
       </c>
@@ -5456,10 +5512,10 @@
       <c r="R13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="90"/>
+      <c r="S13" s="89"/>
       <c r="T13" s="11"/>
       <c r="U13" s="65"/>
-      <c r="V13" s="123"/>
+      <c r="V13" s="121"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5489,20 +5545,20 @@
       <c r="H14" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="91" t="s">
+      <c r="I14" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="88"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="56" t="s">
         <v>84</v>
       </c>
       <c r="M14" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="53" t="s">
         <v>73</v>
       </c>
@@ -5515,10 +5571,10 @@
       <c r="R14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="90"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="11"/>
       <c r="U14" s="65"/>
-      <c r="V14" s="123"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5577,7 +5633,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="11"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="123"/>
+      <c r="V15" s="121"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5632,7 +5688,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="11"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="124"/>
+      <c r="V16" s="122"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5758,7 +5814,7 @@
       <c r="D19" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="91">
         <v>868183033857728</v>
       </c>
       <c r="F19" s="69"/>
@@ -5811,7 +5867,9 @@
       <c r="B20" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" s="51" t="s">
         <v>44</v>
       </c>
@@ -5819,7 +5877,9 @@
         <v>868183037850844</v>
       </c>
       <c r="F20" s="69"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>82</v>
@@ -5831,12 +5891,22 @@
       <c r="L20" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
       <c r="U20" s="16"/>
@@ -5845,7 +5915,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5855,7 +5925,9 @@
       <c r="B21" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" s="51" t="s">
         <v>44</v>
       </c>
@@ -5903,7 +5975,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5985,9 @@
       <c r="B22" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" s="51" t="s">
         <v>44</v>
       </c>
@@ -5961,7 +6035,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,7 +6045,9 @@
       <c r="B23" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D23" s="51" t="s">
         <v>44</v>
       </c>
@@ -5995,12 +6071,24 @@
       <c r="L23" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="11">
+        <v>35000</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="11"/>
       <c r="U23" s="16"/>
@@ -6014,7 +6102,9 @@
       <c r="B24" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D24" s="51" t="s">
         <v>44</v>
       </c>
@@ -6041,7 +6131,9 @@
       <c r="M24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="11">
+        <v>10000</v>
+      </c>
       <c r="O24" s="11" t="s">
         <v>73</v>
       </c>
@@ -6067,7 +6159,9 @@
       <c r="B25" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D25" s="51" t="s">
         <v>44</v>
       </c>
@@ -6124,7 +6218,9 @@
       <c r="B26" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D26" s="51" t="s">
         <v>44</v>
       </c>
@@ -6148,12 +6244,22 @@
       <c r="L26" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="O26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="11"/>
       <c r="U26" s="16"/>
@@ -6172,7 +6278,9 @@
       <c r="B27" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D27" s="51" t="s">
         <v>44</v>
       </c>
@@ -6194,12 +6302,22 @@
         <v>84</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="M27" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R27" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="11"/>
       <c r="U27" s="16"/>
@@ -6218,7 +6336,9 @@
       <c r="B28" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D28" s="51" t="s">
         <v>44</v>
       </c>
@@ -6232,7 +6352,7 @@
       <c r="H28" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="100">
+      <c r="I28" s="99">
         <v>125212203114.157</v>
       </c>
       <c r="J28" s="1"/>
@@ -6266,7 +6386,7 @@
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6276,7 +6396,9 @@
       <c r="B29" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D29" s="51" t="s">
         <v>44</v>
       </c>
@@ -6294,18 +6416,30 @@
       <c r="J29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>151</v>
       </c>
       <c r="L29" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
+      <c r="M29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N29" s="1">
+        <v>110000</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="11"/>
       <c r="U29" s="16"/>
@@ -6324,7 +6458,9 @@
       <c r="B30" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="75"/>
+      <c r="C30" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D30" s="51" t="s">
         <v>44</v>
       </c>
@@ -6404,7 +6540,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,7 +6668,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6596,7 +6732,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,7 +7175,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="97"/>
+      <c r="K52" s="96"/>
       <c r="L52" s="37"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
@@ -7071,7 +7207,7 @@
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="97"/>
+      <c r="K53" s="96"/>
       <c r="L53" s="37"/>
       <c r="M53" s="36"/>
       <c r="N53" s="21"/>
@@ -7103,7 +7239,7 @@
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
-      <c r="K54" s="98"/>
+      <c r="K54" s="97"/>
       <c r="L54" s="43"/>
       <c r="M54" s="42"/>
       <c r="N54" s="44"/>
@@ -7135,7 +7271,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
-      <c r="K55" s="97"/>
+      <c r="K55" s="96"/>
       <c r="L55" s="37"/>
       <c r="M55" s="36"/>
       <c r="N55" s="21"/>
@@ -7167,7 +7303,7 @@
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
-      <c r="K56" s="97"/>
+      <c r="K56" s="96"/>
       <c r="L56" s="37"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
@@ -7178,10 +7314,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="125" t="s">
+      <c r="V56" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="125">
+      <c r="W56" s="123">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7199,7 +7335,7 @@
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="K57" s="97"/>
+      <c r="K57" s="96"/>
       <c r="L57" s="37"/>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
@@ -7210,8 +7346,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7226,7 +7362,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="97"/>
+      <c r="K58" s="96"/>
       <c r="L58" s="37"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -7237,8 +7373,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7253,7 +7389,7 @@
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="K59" s="97"/>
+      <c r="K59" s="96"/>
       <c r="L59" s="37"/>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
@@ -7280,7 +7416,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
-      <c r="K60" s="97"/>
+      <c r="K60" s="96"/>
       <c r="L60" s="37"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
@@ -7307,7 +7443,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="97"/>
+      <c r="K61" s="96"/>
       <c r="L61" s="37"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -7339,7 +7475,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
-      <c r="K62" s="97"/>
+      <c r="K62" s="96"/>
       <c r="L62" s="37"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
@@ -7371,7 +7507,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="K63" s="97"/>
+      <c r="K63" s="96"/>
       <c r="L63" s="37"/>
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
@@ -7398,7 +7534,7 @@
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
-      <c r="K64" s="97"/>
+      <c r="K64" s="96"/>
       <c r="L64" s="37"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
@@ -7425,7 +7561,7 @@
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="K65" s="97"/>
+      <c r="K65" s="96"/>
       <c r="L65" s="37"/>
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
@@ -7452,7 +7588,7 @@
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-      <c r="K66" s="97"/>
+      <c r="K66" s="96"/>
       <c r="L66" s="37"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
@@ -7479,7 +7615,7 @@
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="K67" s="97"/>
+      <c r="K67" s="96"/>
       <c r="L67" s="37"/>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
@@ -7509,7 +7645,7 @@
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="K68" s="97"/>
+      <c r="K68" s="96"/>
       <c r="L68" s="37"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
@@ -7536,7 +7672,7 @@
       <c r="H69" s="36"/>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-      <c r="K69" s="97"/>
+      <c r="K69" s="96"/>
       <c r="L69" s="37"/>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
@@ -7563,7 +7699,7 @@
       <c r="H70" s="36"/>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
-      <c r="K70" s="97"/>
+      <c r="K70" s="96"/>
       <c r="L70" s="37"/>
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
@@ -7590,7 +7726,7 @@
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
-      <c r="K71" s="97"/>
+      <c r="K71" s="96"/>
       <c r="L71" s="37"/>
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
@@ -7617,7 +7753,7 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="K72" s="97"/>
+      <c r="K72" s="96"/>
       <c r="L72" s="37"/>
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
@@ -7644,7 +7780,7 @@
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
-      <c r="K73" s="97"/>
+      <c r="K73" s="96"/>
       <c r="L73" s="37"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -7671,7 +7807,7 @@
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="K74" s="97"/>
+      <c r="K74" s="96"/>
       <c r="L74" s="37"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
@@ -7698,7 +7834,7 @@
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="K75" s="97"/>
+      <c r="K75" s="96"/>
       <c r="L75" s="37"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -7725,7 +7861,7 @@
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
-      <c r="K76" s="97"/>
+      <c r="K76" s="96"/>
       <c r="L76" s="37"/>
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
@@ -7752,7 +7888,7 @@
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
-      <c r="K77" s="97"/>
+      <c r="K77" s="96"/>
       <c r="L77" s="37"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
@@ -7779,7 +7915,7 @@
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
-      <c r="K78" s="97"/>
+      <c r="K78" s="96"/>
       <c r="L78" s="37"/>
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
@@ -7806,7 +7942,7 @@
       <c r="H79" s="36"/>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
-      <c r="K79" s="97"/>
+      <c r="K79" s="96"/>
       <c r="L79" s="37"/>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
@@ -7833,7 +7969,7 @@
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
-      <c r="K80" s="97"/>
+      <c r="K80" s="96"/>
       <c r="L80" s="37"/>
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
@@ -7860,7 +7996,7 @@
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="K81" s="97"/>
+      <c r="K81" s="96"/>
       <c r="L81" s="37"/>
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
@@ -7887,7 +8023,7 @@
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="K82" s="97"/>
+      <c r="K82" s="96"/>
       <c r="L82" s="37"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -7914,7 +8050,7 @@
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="K83" s="97"/>
+      <c r="K83" s="96"/>
       <c r="L83" s="37"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -7941,7 +8077,7 @@
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
-      <c r="K84" s="97"/>
+      <c r="K84" s="96"/>
       <c r="L84" s="37"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -7968,7 +8104,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-      <c r="K85" s="97"/>
+      <c r="K85" s="96"/>
       <c r="L85" s="37"/>
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
@@ -7995,7 +8131,7 @@
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="K86" s="97"/>
+      <c r="K86" s="96"/>
       <c r="L86" s="37"/>
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
@@ -8022,7 +8158,7 @@
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="K87" s="97"/>
+      <c r="K87" s="96"/>
       <c r="L87" s="37"/>
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
@@ -8049,7 +8185,7 @@
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="K88" s="97"/>
+      <c r="K88" s="96"/>
       <c r="L88" s="37"/>
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
@@ -8076,7 +8212,7 @@
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="K89" s="97"/>
+      <c r="K89" s="96"/>
       <c r="L89" s="37"/>
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
@@ -8103,7 +8239,7 @@
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="K90" s="97"/>
+      <c r="K90" s="96"/>
       <c r="L90" s="37"/>
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
@@ -8130,7 +8266,7 @@
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="K91" s="97"/>
+      <c r="K91" s="96"/>
       <c r="L91" s="37"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -8157,7 +8293,7 @@
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="K92" s="97"/>
+      <c r="K92" s="96"/>
       <c r="L92" s="37"/>
       <c r="M92" s="36"/>
       <c r="N92" s="36"/>
@@ -8184,7 +8320,7 @@
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="97"/>
+      <c r="K93" s="96"/>
       <c r="L93" s="37"/>
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
@@ -8211,7 +8347,7 @@
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="K94" s="97"/>
+      <c r="K94" s="96"/>
       <c r="L94" s="37"/>
       <c r="M94" s="36"/>
       <c r="N94" s="36"/>
@@ -8238,7 +8374,7 @@
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-      <c r="K95" s="97"/>
+      <c r="K95" s="96"/>
       <c r="L95" s="37"/>
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
@@ -8265,7 +8401,7 @@
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-      <c r="K96" s="97"/>
+      <c r="K96" s="96"/>
       <c r="L96" s="37"/>
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
@@ -8292,7 +8428,7 @@
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-      <c r="K97" s="97"/>
+      <c r="K97" s="96"/>
       <c r="L97" s="37"/>
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
@@ -8319,7 +8455,7 @@
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="K98" s="97"/>
+      <c r="K98" s="96"/>
       <c r="L98" s="37"/>
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
@@ -8346,7 +8482,7 @@
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="K99" s="97"/>
+      <c r="K99" s="96"/>
       <c r="L99" s="37"/>
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
@@ -8373,7 +8509,7 @@
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
-      <c r="K100" s="97"/>
+      <c r="K100" s="96"/>
       <c r="L100" s="37"/>
       <c r="M100" s="36"/>
       <c r="N100" s="36"/>
@@ -8400,7 +8536,7 @@
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
-      <c r="K101" s="97"/>
+      <c r="K101" s="96"/>
       <c r="L101" s="37"/>
       <c r="M101" s="36"/>
       <c r="N101" s="36"/>
@@ -8427,7 +8563,7 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
-      <c r="K102" s="97"/>
+      <c r="K102" s="96"/>
       <c r="L102" s="37"/>
       <c r="M102" s="36"/>
       <c r="N102" s="36"/>
@@ -8454,7 +8590,7 @@
       <c r="H103" s="36"/>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
-      <c r="K103" s="97"/>
+      <c r="K103" s="96"/>
       <c r="L103" s="37"/>
       <c r="M103" s="36"/>
       <c r="N103" s="36"/>
@@ -8481,7 +8617,7 @@
       <c r="H104" s="36"/>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
-      <c r="K104" s="97"/>
+      <c r="K104" s="96"/>
       <c r="L104" s="37"/>
       <c r="M104" s="36"/>
       <c r="N104" s="36"/>
@@ -8508,7 +8644,7 @@
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="97"/>
+      <c r="K105" s="96"/>
       <c r="L105" s="37"/>
       <c r="M105" s="36"/>
       <c r="N105" s="36"/>
@@ -8555,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8587,43 +8723,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="71"/>
@@ -8668,58 +8804,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="P4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="119" t="s">
+      <c r="Q4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="119" t="s">
+      <c r="R4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="127" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="119" t="s">
+      <c r="V4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="117" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8744,24 +8880,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="119"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="130"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8819,7 +8955,7 @@
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="120" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8878,7 +9014,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="123"/>
+      <c r="V7" s="121"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8890,7 +9026,9 @@
       <c r="B8" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -8935,7 +9073,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="11"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="123"/>
+      <c r="V8" s="121"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8947,7 +9085,9 @@
       <c r="B9" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -8990,7 +9130,7 @@
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="123"/>
+      <c r="V9" s="121"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -9002,7 +9142,9 @@
       <c r="B10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -9047,7 +9189,7 @@
       </c>
       <c r="T10" s="11"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="123"/>
+      <c r="V10" s="121"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9059,7 +9201,9 @@
       <c r="B11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>46</v>
       </c>
@@ -9104,7 +9248,7 @@
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="123"/>
+      <c r="V11" s="121"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9116,7 +9260,9 @@
       <c r="B12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>46</v>
       </c>
@@ -9161,67 +9307,69 @@
       </c>
       <c r="T12" s="11"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="120" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103">
+    <row r="13" spans="1:23" s="111" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101">
         <v>8</v>
       </c>
       <c r="B13" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="104" t="s">
+      <c r="C13" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="103">
         <v>864811036970767</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="104" t="s">
+      <c r="F13" s="104"/>
+      <c r="G13" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="107" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="105" t="s">
         <v>161</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="106" t="s">
         <v>172</v>
       </c>
       <c r="L13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="109" t="s">
+      <c r="M13" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="N13" s="110"/>
-      <c r="O13" s="109" t="s">
+      <c r="N13" s="108"/>
+      <c r="O13" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="109" t="s">
+      <c r="P13" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="111" t="s">
+      <c r="Q13" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="104" t="s">
+      <c r="R13" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="S13" s="103" t="s">
+      <c r="S13" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="T13" s="111"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="103" t="s">
+      <c r="T13" s="109"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="101" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9232,7 +9380,9 @@
       <c r="B14" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D14" s="51" t="s">
         <v>46</v>
       </c>
@@ -9244,13 +9394,13 @@
         <v>67</v>
       </c>
       <c r="H14" s="69"/>
-      <c r="I14" s="102" t="s">
+      <c r="I14" s="100" t="s">
         <v>161</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="87" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="56" t="s">
@@ -9259,7 +9409,7 @@
       <c r="M14" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="53" t="s">
         <v>73</v>
       </c>
@@ -9276,8 +9426,8 @@
         <v>75</v>
       </c>
       <c r="T14" s="11"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="123"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9289,7 +9439,9 @@
       <c r="B15" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>46</v>
       </c>
@@ -9332,7 +9484,7 @@
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="123"/>
+      <c r="V15" s="121"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9344,7 +9496,9 @@
       <c r="B16" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>46</v>
       </c>
@@ -9389,7 +9543,7 @@
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="124"/>
+      <c r="V16" s="122"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10623,10 +10777,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="125" t="s">
+      <c r="V56" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="125">
+      <c r="W56" s="123">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10655,8 +10809,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10682,8 +10836,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -12032,43 +12186,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -12113,58 +12267,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="P4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="119" t="s">
+      <c r="Q4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="119" t="s">
+      <c r="R4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="127" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="119" t="s">
+      <c r="V4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="117" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -12189,24 +12343,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="119"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="130"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -12232,7 +12386,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="122" t="s">
+      <c r="V6" s="120" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -12263,7 +12417,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="123"/>
+      <c r="V7" s="121"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12292,7 +12446,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="123"/>
+      <c r="V8" s="121"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12321,7 +12475,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="123"/>
+      <c r="V9" s="121"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -12350,7 +12504,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="123"/>
+      <c r="V10" s="121"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12379,7 +12533,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="123"/>
+      <c r="V11" s="121"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12408,7 +12562,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="120" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12439,7 +12593,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="123"/>
+      <c r="V13" s="121"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12468,7 +12622,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="123"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12497,7 +12651,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="123"/>
+      <c r="V15" s="121"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12526,7 +12680,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="124"/>
+      <c r="V16" s="122"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13760,10 +13914,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="125" t="s">
+      <c r="V56" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="125">
+      <c r="W56" s="123">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13792,8 +13946,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -13819,8 +13973,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
